--- a/biology/Botanique/Conyza/Conyza.xlsx
+++ b/biology/Botanique/Conyza/Conyza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conyza est un genre de plantes à fleurs de la famille des Astéracées, qui comprend 151 espèces, présentes en régions chaudes et tempérées sur plusieurs continents : Amérique, Europe, Asie. Il est proche du genre Erigeron.
 Les plantes qui le composent sont dites rudérales et considérées comme des « mauvaises herbes ».
@@ -512,11 +524,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre porte en français plusieurs noms communs : « Vergerette » (qui désigne aussi le genre Erigeron) ainsi que, à Mayotte et La Réunion, « Conyse », « Conisa » et « Conise »[1]
-Conyza Less., 1832 (espèce type : Conyza chilensis Spreng.[2]) est un nomen conservandum (nom. cons.)[3] contre Conyza L., 1753 (espèce type : Conyza squarrosa L.[4]), qui est lui un nom. rej. et un synonyme de Erigeron L., 1753[5]. Plusieurs sources[1],[6],[7],[8] considèrent aussi Conyza Less., 1832 comme un synonyme de Erigeron L., 1753. Enfin un troisième genre a été nommé du même nom : Conyza Hill, 1756, un nom illégitime (nom. illeg.) car homonyme[9], dont le statut taxinomique est non-résolu[10].
-Conyza Less. a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre porte en français plusieurs noms communs : « Vergerette » (qui désigne aussi le genre Erigeron) ainsi que, à Mayotte et La Réunion, « Conyse », « Conisa » et « Conise »
+Conyza Less., 1832 (espèce type : Conyza chilensis Spreng.) est un nomen conservandum (nom. cons.) contre Conyza L., 1753 (espèce type : Conyza squarrosa L.), qui est lui un nom. rej. et un synonyme de Erigeron L., 1753. Plusieurs sources considèrent aussi Conyza Less., 1832 comme un synonyme de Erigeron L., 1753. Enfin un troisième genre a été nommé du même nom : Conyza Hill, 1756, un nom illégitime (nom. illeg.) car homonyme, dont le statut taxinomique est non-résolu.
+Conyza Less. a pour synonymes :
 Conyza sect. Caenotus (Nutt.) Cronquist ex Cuatrec.
 Erigeron sect. Caenotus Nutt.
 Erigeron sect. Conyza (L.) Baillon
@@ -552,9 +566,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Global Compositae Database       (30 juillet 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Global Compositae Database       (30 juillet 2023) :
 Conyza abyssinica Sch.Bip. ex A.Rich.
 Conyza adenocarpa Dalzell &amp; A.Gibson
 Conyza ageratoides DC.
